--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1861865.564322118</v>
+        <v>1859469.908316938</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>42.76734719401195</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.7289973594678</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>74.03593649473483</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>183.231581964291</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>318.349452536152</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>2.344584590811653</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>89.34519834805256</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>186.6774977677764</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>295.8856180788258</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>313.4409126298451</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -1339,19 +1339,19 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>54.04974316665349</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>156.5669442036821</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377027</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>178.5134655978075</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>268.7601944832711</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.926382450741</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>75.00788511618039</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.936238874645</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,16 +3478,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.879692121439</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>261.8890829640565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.26558381699924</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514047</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1142.55613329041</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>773.593616349998</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>415.3279177432475</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>71.15721333974459</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054111</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1224.788511629516</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1530.263617865101</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>2171.286827484995</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2448.618721147459</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1532.695465266221</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1142.55613329041</v>
+        <v>925.3036175845675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>172.4021594981243</v>
       </c>
       <c r="K3" t="n">
-        <v>282.3826491045481</v>
+        <v>293.8252517684034</v>
       </c>
       <c r="L3" t="n">
-        <v>859.1054642078022</v>
+        <v>503.4161250212344</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703288</v>
+        <v>767.3556565167222</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.37886613662</v>
+        <v>1408.378866136616</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972039</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>908.7612653873479</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="C4" t="n">
-        <v>739.825082459441</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D4" t="n">
-        <v>589.7084430471052</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>441.7953494647121</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>294.9054019668017</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>126.5836295599256</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1008.459842678031</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1008.459842678031</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>719.3232156701333</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361118</v>
+        <v>719.3232156701333</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361118</v>
+        <v>429.9060456331728</v>
       </c>
       <c r="X4" t="n">
-        <v>1311.202309361118</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="Y4" t="n">
-        <v>1090.409730217588</v>
+        <v>201.9164947351555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.404814889293</v>
+        <v>1570.970416142427</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.404814889293</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="D5" t="n">
-        <v>1170.139116282542</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E5" t="n">
-        <v>784.350863684298</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
-        <v>373.3649588946905</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502978</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.173470159407</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.404814889293</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.404814889293</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.404814889293</v>
+        <v>1570.970416142427</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128335</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291482</v>
+        <v>942.9699568457227</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1480.804272147216</v>
+        <v>1699.68540766379</v>
       </c>
       <c r="O6" t="n">
-        <v>1815.732952862747</v>
+        <v>2034.614088379321</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.487821681304</v>
+        <v>2284.09081624434</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0475304218627</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0475304218627</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0475304218627</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0475304218627</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0475304218627</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0475304218627</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0475304218627</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.049095695859</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.931318706258</v>
+        <v>936.9149384004937</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2468305003707</v>
+        <v>682.2304501946069</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8296604634102</v>
+        <v>682.2304501946069</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8401095653928</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0475304218627</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9562932262879</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="C8" t="n">
-        <v>386.9937762858762</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="D8" t="n">
-        <v>386.9937762858762</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477384</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266221</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.55613329041</v>
+        <v>1528.404814889292</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128337</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291485</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
-        <v>1365.112030949042</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1755.521592274785</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>2090.450272990316</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2339.927000855335</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.825563768798</v>
+        <v>621.8196420359583</v>
       </c>
       <c r="C10" t="n">
-        <v>918.8893808408909</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="D10" t="n">
-        <v>768.7727414285552</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="E10" t="n">
-        <v>620.859647846162</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482516</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G10" t="n">
         <v>305.993511610141</v>
@@ -4960,25 +4960,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4987,25 +4987,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1490.266607742567</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1490.266607742567</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U10" t="n">
-        <v>1490.266607742567</v>
+        <v>1386.713879422336</v>
       </c>
       <c r="V10" t="n">
-        <v>1490.266607742567</v>
+        <v>1132.029391216449</v>
       </c>
       <c r="W10" t="n">
-        <v>1490.266607742567</v>
+        <v>842.6122211794884</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.266607742567</v>
+        <v>842.6122211794884</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.474028599037</v>
+        <v>621.8196420359583</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.791617318188</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="C19" t="n">
-        <v>923.4098145049275</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>773.2931750925917</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>625.3800815101986</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>478.4901340122882</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>311.2940347271681</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>169.5822035693662</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
@@ -7090,55 +7090,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510504</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,10 +7205,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7403,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.57599612053</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>920.6398131926233</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>770.5231737802875</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>622.6100801978944</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>475.720132699984</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>308.5240334148639</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>166.812202257062</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1492.0170400943</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>1271.22446095077</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083429</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>77.80562259935431</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.24927004866024</v>
       </c>
       <c r="K3" t="n">
-        <v>84.69108553971722</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.37844346995232</v>
+        <v>162.7491560325416</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>245.4670104377199</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.3489695567893</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092518</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>38.89198472948078</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>17.42427990597304</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788679</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6.257951202385144</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762386</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.257951202388995</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.000252501566294</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069013</v>
       </c>
     </row>
     <row r="44">
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>916269.5761914153</v>
+        <v>916269.576191415</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518675</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583914</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583912</v>
@@ -26323,34 +26323,34 @@
         <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="N2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
         <v>544823.954790754</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6287.480531695059</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695059</v>
-      </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695042</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-634610.6549291555</v>
+        <v>-634610.6549291578</v>
       </c>
       <c r="C6" t="n">
-        <v>158890.9907817385</v>
+        <v>158890.9907817416</v>
       </c>
       <c r="D6" t="n">
-        <v>331655.3505716334</v>
+        <v>331655.3505716336</v>
       </c>
       <c r="E6" t="n">
-        <v>-63474.92331059887</v>
+        <v>-63509.66123603466</v>
       </c>
       <c r="F6" t="n">
-        <v>437413.9444351517</v>
+        <v>437379.2065097165</v>
       </c>
       <c r="G6" t="n">
-        <v>437413.9444351516</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="H6" t="n">
-        <v>437413.9444351521</v>
+        <v>437379.206509716</v>
       </c>
       <c r="I6" t="n">
-        <v>437413.9444351516</v>
+        <v>437379.206509716</v>
       </c>
       <c r="J6" t="n">
-        <v>267999.9276091036</v>
+        <v>267965.1896836682</v>
       </c>
       <c r="K6" t="n">
-        <v>437413.9444351516</v>
+        <v>437379.2065097158</v>
       </c>
       <c r="L6" t="n">
-        <v>437413.9444351517</v>
+        <v>437379.2065097162</v>
       </c>
       <c r="M6" t="n">
-        <v>306529.4875309168</v>
+        <v>306494.7496054808</v>
       </c>
       <c r="N6" t="n">
-        <v>437413.9444351515</v>
+        <v>437379.206509716</v>
       </c>
       <c r="O6" t="n">
-        <v>437413.9444351516</v>
+        <v>437379.2065097163</v>
       </c>
       <c r="P6" t="n">
-        <v>437413.9444351517</v>
+        <v>437379.2065097162</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,23 +26957,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918295</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>428.2691096918293</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>339.9664944694686</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>41.20137271279395</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>76.16695116918571</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>17.21594240701049</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>93.17557084571735</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>383.8933540652419</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>15.14546116494857</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.54910145192923</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>69.38727369218179</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>68.48945744241666</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>140.4354261674376</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>129.6596550160235</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>280.1332259216809</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>121.8205092679844</v>
       </c>
       <c r="K3" t="n">
-        <v>207.3406736915132</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35030,10 +35030,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.4081296997145</v>
+        <v>280.7788422623038</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>639.8201026859444</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>224.3786557865516</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,13 +36197,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326294939</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
